--- a/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9834A2-5506-4468-AEAD-D2E9551255A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6229A7D0-6D91-4901-8D74-9FFB3BADC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,16 +1399,16 @@
         <v>48</v>
       </c>
       <c r="B16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,16 +1416,16 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,16 +1433,16 @@
         <v>50</v>
       </c>
       <c r="B18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,16 +1450,16 @@
         <v>51</v>
       </c>
       <c r="B19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,16 +1467,16 @@
         <v>52</v>
       </c>
       <c r="B20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,16 +1484,16 @@
         <v>53</v>
       </c>
       <c r="B21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,16 +1501,16 @@
         <v>54</v>
       </c>
       <c r="B22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,16 +1518,16 @@
         <v>55</v>
       </c>
       <c r="B23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,16 +1535,16 @@
         <v>56</v>
       </c>
       <c r="B24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6229A7D0-6D91-4901-8D74-9FFB3BADC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10706D5-7029-43AB-826F-4B8EAED23C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10706D5-7029-43AB-826F-4B8EAED23C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F2CCE-CD0C-44B2-9049-CB088E2A4B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
